--- a/SR--Hours.xlsx
+++ b/SR--Hours.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t xml:space="preserve">Hours for Summer Research </t>
   </si>
@@ -87,7 +87,16 @@
     <t>Met with Tessa to help each other with Github and Rstudio and made folders to organize Github</t>
   </si>
   <si>
-    <t>7:30pm-</t>
+    <t>7:30pm-8:30pm</t>
+  </si>
+  <si>
+    <t>Worked on Data Camp: Unsupervised Learning Chapter 2 and took notes</t>
+  </si>
+  <si>
+    <t>9:30pm-12:00am</t>
+  </si>
+  <si>
+    <t>Finished DataCamp: Unsupervised Learning and took notes</t>
   </si>
 </sst>
 </file>
@@ -469,7 +478,7 @@
   <dimension ref="A1:D34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -619,6 +628,26 @@
       <c r="B11" t="s">
         <v>22</v>
       </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="2">
+        <v>42914</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12">
+        <v>2.5</v>
+      </c>
+      <c r="D12" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="34" spans="2:3">
       <c r="B34" t="s">
@@ -626,7 +655,7 @@
       </c>
       <c r="C34">
         <f>SUM(C3:C33)</f>
-        <v>10.5</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
